--- a/중간발표/04.엔티티속성정의서.xlsx
+++ b/중간발표/04.엔티티속성정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCE0C4F-8EC9-4D8F-81F7-76E30F1647AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BB2F60-09E3-4384-908C-73EDE3611C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{38A8182A-ACC8-4E07-BA5C-816417FCF462}"/>
   </bookViews>
@@ -1720,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565870B8-4FC2-4F22-BB4B-76F983202CF4}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
